--- a/7rmartsupermarket/src/test/resources/TestData.xlsx
+++ b/7rmartsupermarket/src/test/resources/TestData.xlsx
@@ -5,15 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Seleniumworkspace\7rmartsupermarket\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Resmi-Selenium\GITLocal\LocalRepository\7rmartsupermarket\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6FCD24-94E2-4973-A36D-DBD505F7C6F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CA6BC4-2852-4E47-B039-453D58914C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3276" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
+    <sheet name="AdminUser" sheetId="2" r:id="rId2"/>
+    <sheet name="CategoryValue" sheetId="4" r:id="rId3"/>
+    <sheet name="ManageCategory" sheetId="3" r:id="rId4"/>
+    <sheet name="ManageNews" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>UserName</t>
   </si>
@@ -40,6 +44,30 @@
   </si>
   <si>
     <t>resmi</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CategoryName </t>
+  </si>
+  <si>
+    <t>Beetroot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value </t>
+  </si>
+  <si>
+    <t>Vegetables</t>
+  </si>
+  <si>
+    <t>News</t>
+  </si>
+  <si>
+    <t>SportsNews</t>
   </si>
 </sst>
 </file>
@@ -359,8 +387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -411,4 +439,119 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B02243EA-59F7-4E98-A032-04047854561B}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D43E2A4B-75E5-4C18-9CE1-32534090F4B3}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C6AB6B8-8958-434A-B40B-F027BFE3FA3E}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78FC57E0-BD17-4B1A-825F-C0888245C995}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/7rmartsupermarket/src/test/resources/TestData.xlsx
+++ b/7rmartsupermarket/src/test/resources/TestData.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Resmi-Selenium\GITLocal\LocalRepository\7rmartsupermarket\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CA6BC4-2852-4E47-B039-453D58914C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601A6034-2BC9-4691-B704-4C760473D124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
     <sheet name="AdminUser" sheetId="2" r:id="rId2"/>
-    <sheet name="CategoryValue" sheetId="4" r:id="rId3"/>
-    <sheet name="ManageCategory" sheetId="3" r:id="rId4"/>
-    <sheet name="ManageNews" sheetId="5" r:id="rId5"/>
+    <sheet name="AdminUserType" sheetId="6" r:id="rId3"/>
+    <sheet name="CategoryValue" sheetId="4" r:id="rId4"/>
+    <sheet name="ManageCategory" sheetId="3" r:id="rId5"/>
+    <sheet name="ManageNews" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>UserName</t>
   </si>
@@ -68,6 +69,15 @@
   </si>
   <si>
     <t>SportsNews</t>
+  </si>
+  <si>
+    <t>UserType</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Partner</t>
   </si>
 </sst>
 </file>
@@ -446,7 +456,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -476,6 +486,36 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2B13269-C17F-4591-887A-FBAF588D1B2B}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D43E2A4B-75E5-4C18-9CE1-32534090F4B3}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -500,7 +540,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C6AB6B8-8958-434A-B40B-F027BFE3FA3E}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -528,12 +568,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78FC57E0-BD17-4B1A-825F-C0888245C995}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
